--- a/DTS11.xlsx
+++ b/DTS11.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/infinity2c/Desktop/MY PROJECT XXX/Apple-Dead-Teast-Board/A2Dead-Test-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADE7D40-87F5-B748-9AA1-0A2E1B3DB3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE9F4C9B-42A9-0C46-8BEF-A86E297DF52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1180" windowWidth="28240" windowHeight="17440"/>
+    <workbookView xWindow="9500" yWindow="2300" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A2Dead-Test-Switcher_V1.2_OS.ki" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="27" uniqueCount="19">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="34" uniqueCount="26">
   <si>
     <t>Comment</t>
   </si>
@@ -60,18 +60,10 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>Resister 10K 1206</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>R2</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>Resister 470R 1206</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>D1</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -97,13 +89,44 @@
   </si>
   <si>
     <t>NC7S04M5X SOT23-5</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/würth-elektronik/151033RS03000/4490003</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF1206JT470R/1753845</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC1206FR-0710KL/728483</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/c&amp;k/JS202011CQN/1640097?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_New%20Customer%20Acquisition&amp;utm_term=&amp;productid=1640097&amp;utm_content=&amp;utm_id=go_cmp-19897039674_adg-_ad-__dev-c_ext-_prd-1640097_sig-EAIaIQobChMIqub9taCMhAMVviN7Bx16jgQLEAQYAyABEgKK6_D_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMIqub9taCMhAMVviN7Bx16jgQLEAQYAyABEgKK6_D_BwE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/kemet/C1206C104K5RAC7210/3317012</t>
+  </si>
+  <si>
+    <t>DIGIKEY LINK</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/onsemi/NC7S04M5X-L22090/16910805</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Resistor 10K 1206</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Resistor 470R 1206</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -1065,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1090,11 +1113,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1105,13 +1130,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1124,6 +1149,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -1135,49 +1163,64 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
